--- a/T3 - JSON/EstadisticasNBA/src/recursos/Documentacion API/API NBA.xlsx
+++ b/T3 - JSON/EstadisticasNBA/src/recursos/Documentacion API/API NBA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario DAM 2\Documents\NetBeansProjects\Desarrollo_Interfaces\T3 - JSON\EstadisticasNBA\src\recursos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adri\Documents\NetBeansProjects\Desarrollo_Interfaces\T3 - JSON\EstadisticasNBA\src\recursos\Documentacion API\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A76E134-CE4D-412F-B313-F198D7031F1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="183">
   <si>
     <t>Nombre_equipo</t>
   </si>
@@ -486,12 +481,105 @@
   </si>
   <si>
     <t>http://content.sportslogos.net/logos/6/219/full/5671_washington_wizards-primary-2016.png</t>
+  </si>
+  <si>
+    <t>Entrenador</t>
+  </si>
+  <si>
+    <t>Brad Stevens</t>
+  </si>
+  <si>
+    <t>Kenny Atkinson</t>
+  </si>
+  <si>
+    <t>Mike Miller</t>
+  </si>
+  <si>
+    <t>Brett Brown</t>
+  </si>
+  <si>
+    <t>Nick Nurse</t>
+  </si>
+  <si>
+    <t>Jim Boylen</t>
+  </si>
+  <si>
+    <t>John Beilein</t>
+  </si>
+  <si>
+    <t>Dwane Casey</t>
+  </si>
+  <si>
+    <t>Nate McMillan</t>
+  </si>
+  <si>
+    <t>Mike Bundenholzer</t>
+  </si>
+  <si>
+    <t>Lloyd Pierce</t>
+  </si>
+  <si>
+    <t>James Borrego</t>
+  </si>
+  <si>
+    <t>Erik Spoelstra</t>
+  </si>
+  <si>
+    <t>Steve Clifford</t>
+  </si>
+  <si>
+    <t>Scott Brooks</t>
+  </si>
+  <si>
+    <t>Michael Malone</t>
+  </si>
+  <si>
+    <t>Ryan Saunders</t>
+  </si>
+  <si>
+    <t>Billy Donovan</t>
+  </si>
+  <si>
+    <t>Terry Stotts</t>
+  </si>
+  <si>
+    <t>Quin Snyder</t>
+  </si>
+  <si>
+    <t>Steve Kerr</t>
+  </si>
+  <si>
+    <t>Doc Rivers</t>
+  </si>
+  <si>
+    <t>Frank Vogel</t>
+  </si>
+  <si>
+    <t>Monty Williams</t>
+  </si>
+  <si>
+    <t>Luke Walton</t>
+  </si>
+  <si>
+    <t>Rick Carlisle</t>
+  </si>
+  <si>
+    <t>Mike D'Antoni</t>
+  </si>
+  <si>
+    <t>Taylor Jenkins</t>
+  </si>
+  <si>
+    <t>Alvin Gentry</t>
+  </si>
+  <si>
+    <t>Gregg Popovich</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -528,7 +616,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,6 +632,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,7 +670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -620,6 +714,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -935,11 +1041,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +1060,7 @@
     <col min="8" max="8" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="85.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -989,6 +1095,9 @@
       <c r="J1" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="K1" s="19" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -1021,6 +1130,9 @@
       <c r="J2" s="14" t="s">
         <v>122</v>
       </c>
+      <c r="K2" s="16" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1053,6 +1165,9 @@
       <c r="J3" s="3" t="s">
         <v>123</v>
       </c>
+      <c r="K3" s="17" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -1085,6 +1200,9 @@
       <c r="J4" s="10" t="s">
         <v>124</v>
       </c>
+      <c r="K4" s="16" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1117,6 +1235,9 @@
       <c r="J5" s="3" t="s">
         <v>125</v>
       </c>
+      <c r="K5" s="17" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -1149,6 +1270,9 @@
       <c r="J6" s="10" t="s">
         <v>149</v>
       </c>
+      <c r="K6" s="18" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1181,6 +1305,9 @@
       <c r="J7" s="3" t="s">
         <v>128</v>
       </c>
+      <c r="K7" s="17" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -1213,6 +1340,9 @@
       <c r="J8" s="10" t="s">
         <v>129</v>
       </c>
+      <c r="K8" s="18" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1245,6 +1375,9 @@
       <c r="J9" s="3" t="s">
         <v>132</v>
       </c>
+      <c r="K9" s="17" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -1277,6 +1410,9 @@
       <c r="J10" s="10" t="s">
         <v>135</v>
       </c>
+      <c r="K10" s="18" t="s">
+        <v>161</v>
+      </c>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1310,6 +1446,9 @@
       <c r="J11" s="3" t="s">
         <v>140</v>
       </c>
+      <c r="K11" s="17" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
@@ -1342,6 +1481,9 @@
       <c r="J12" s="10" t="s">
         <v>126</v>
       </c>
+      <c r="K12" s="18" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1374,6 +1516,9 @@
       <c r="J13" s="3" t="s">
         <v>127</v>
       </c>
+      <c r="K13" s="17" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
@@ -1406,6 +1551,9 @@
       <c r="J14" s="10" t="s">
         <v>139</v>
       </c>
+      <c r="K14" s="18" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1438,6 +1586,9 @@
       <c r="J15" s="3" t="s">
         <v>144</v>
       </c>
+      <c r="K15" s="17" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -1470,8 +1621,11 @@
       <c r="J16" s="10" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>54</v>
       </c>
@@ -1502,8 +1656,11 @@
       <c r="J17" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>56</v>
       </c>
@@ -1534,8 +1691,11 @@
       <c r="J18" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
@@ -1566,8 +1726,11 @@
       <c r="J19" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>63</v>
       </c>
@@ -1598,8 +1761,11 @@
       <c r="J20" s="10" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>66</v>
       </c>
@@ -1630,8 +1796,11 @@
       <c r="J21" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>70</v>
       </c>
@@ -1662,8 +1831,11 @@
       <c r="J22" s="10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>73</v>
       </c>
@@ -1694,8 +1866,11 @@
       <c r="J23" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>76</v>
       </c>
@@ -1726,8 +1901,11 @@
       <c r="J24" s="10" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>78</v>
       </c>
@@ -1758,8 +1936,11 @@
       <c r="J25" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>82</v>
       </c>
@@ -1790,8 +1971,11 @@
       <c r="J26" s="10" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>86</v>
       </c>
@@ -1822,8 +2006,11 @@
       <c r="J27" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>88</v>
       </c>
@@ -1854,8 +2041,11 @@
       <c r="J28" s="10" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>91</v>
       </c>
@@ -1886,8 +2076,11 @@
       <c r="J29" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>94</v>
       </c>
@@ -1918,8 +2111,11 @@
       <c r="J30" s="10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>98</v>
       </c>
@@ -1949,6 +2145,9 @@
       </c>
       <c r="J31" s="15" t="s">
         <v>148</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
